--- a/0_Tripulaciones/dfs_processed/0_all_events.xlsx
+++ b/0_Tripulaciones/dfs_processed/0_all_events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansuarezcaceres/Downloads/1_DataScience/TheBridge/thebridge/0_Tripulaciones/dfs_processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D8E99-C929-A248-B309-35C01D6588E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029EAC9-69A6-6F4F-962A-313D910886FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
   <si>
     <t>¿Alguna vez has soñado con adentrarte en una pintura? Embárcate en un viaje inspirador al incomparable universo de Van Gogh, uno de los grandes genios del arte del siglo XIX. Explora su vida, obras y secretos como nunca antes a través de una experiencia tridimensional que te dejará sin palabras. Sumérgete en esta experiencia vanguardista insuperable creada por los expertos del Museo Van Gogh de Ámsterdam. ¡No te lo vas a querer perder!</t>
   </si>
@@ -262,16 +262,7 @@
     <t>Accesible para personas con movilidad reducida</t>
   </si>
   <si>
-    <t>Recinto habilitado para personas en silla de ruedas📝 Puedes consultar las preguntas frecuentes y sus respuestas aquí🔗 La seguridad de nuestros asistentes es una prioridad para Fever. Puedes consultar las medidas de seguridad para este evento en este documento</t>
-  </si>
-  <si>
-    <t>Recinto habilitado para personas en silla de ruedas📝 Puedes consultar las preguntas frecuentes y sus respuestas aquí</t>
-  </si>
-  <si>
     <t>Recinto habilitado para personas en silla de ruedas</t>
-  </si>
-  <si>
-    <t>Recinto habilitado para personas en silla de ruedas📝 Puedes consultar las preguntas frecuentes y sus respuestas aquí🔗 La seguridad de nuestros asistentes es una prioridad para Fever. Puedes consultar las medidas de seguridad que se llevarán a cabo para este evento en este documento</t>
   </si>
   <si>
     <t>Al tratarse de un edificio antiguo, no cuenta con acceso ni instalaciones adaptadas</t>
@@ -438,6 +429,18 @@
   </si>
   <si>
     <t>Accesibilidad: recinto habilitado para personas en silla de ruedas</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>2021-07-28</t>
+  </si>
+  <si>
+    <t>2050-12-31</t>
   </si>
 </sst>
 </file>
@@ -843,9 +846,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -858,7 +863,7 @@
     <col min="7" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
@@ -898,8 +903,11 @@
       <c r="N1" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -914,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G2">
         <v>40.397861839663598</v>
@@ -931,13 +939,20 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="N2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>20</v>
@@ -949,7 +964,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G3">
         <v>40.407761769113101</v>
@@ -967,16 +982,19 @@
         <v>24</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>20</v>
@@ -988,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>40.406925022893702</v>
@@ -1000,22 +1018,25 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>20</v>
@@ -1027,7 +1048,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>40.418524720339498</v>
@@ -1039,22 +1060,25 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>20</v>
@@ -1066,7 +1090,7 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>40.422316467584601</v>
@@ -1078,22 +1102,25 @@
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>20</v>
@@ -1105,7 +1132,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7">
         <v>40.407761769113101</v>
@@ -1117,22 +1144,25 @@
         <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>20</v>
@@ -1144,7 +1174,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8">
         <v>40.418500215822498</v>
@@ -1156,22 +1186,25 @@
         <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>20</v>
@@ -1183,7 +1216,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G9">
         <v>40.418500215822498</v>
@@ -1195,22 +1228,25 @@
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
         <v>48</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>20</v>
@@ -1222,7 +1258,7 @@
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G10">
         <v>40.418500215822498</v>
@@ -1234,22 +1270,25 @@
         <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>20</v>
@@ -1261,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <v>40.407761769113101</v>
@@ -1273,18 +1312,25 @@
         <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="N11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>63</v>
       </c>
@@ -1295,7 +1341,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>40.426454217060098</v>
@@ -1307,22 +1353,25 @@
         <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>64</v>
       </c>
@@ -1333,7 +1382,7 @@
         <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G13">
         <v>40.406925022893702</v>
@@ -1345,22 +1394,25 @@
         <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
         <v>68</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -1371,7 +1423,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G14">
         <v>40.406925022893702</v>
@@ -1383,22 +1435,25 @@
         <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s">
         <v>68</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>64</v>
       </c>
@@ -1409,7 +1464,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G15">
         <v>40.406925022893702</v>
@@ -1421,24 +1476,27 @@
         <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
         <v>68</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -1447,140 +1505,162 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K16">
         <v>14</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="N16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="3:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="I17" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="K17" t="s">
         <v>110</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="O17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>112</v>
       </c>
-      <c r="K17" t="s">
+      <c r="D18" t="s">
         <v>113</v>
       </c>
-      <c r="N17" t="s">
+      <c r="E18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" ht="64" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="F18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="I18" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="J18" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="K18">
         <v>25</v>
       </c>
       <c r="L18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="D19" t="s">
         <v>124</v>
       </c>
-      <c r="N18" t="s">
+      <c r="E19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="F19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="I19" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" t="s">
-        <v>132</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K19">
         <v>35</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="N19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="16" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="O19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
         <v>65</v>
@@ -1589,31 +1669,34 @@
         <v>66</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
         <v>67</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K20">
         <v>18</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N20" t="s">
         <v>69</v>
+      </c>
+      <c r="O20" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
